--- a/biology/Zoologie/Galeodes_caspius/Galeodes_caspius.xlsx
+++ b/biology/Zoologie/Galeodes_caspius/Galeodes_caspius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galeodes caspius est une espèce de solifuges de la famille des Galeodidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Israël, en Azerbaïdjan, en Iran, au Turkménistan, en Ouzbékistan, au Tadjikistan, au Kirghizistan, au Kazakhstan et en Chine au Tibet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Israël, en Azerbaïdjan, en Iran, au Turkménistan, en Ouzbékistan, au Tadjikistan, au Kirghizistan, au Kazakhstan et en Chine au Tibet.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Roewer en 1934 mesure 48 mm et la femelle 48 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Roewer en 1934 mesure 48 mm et la femelle 48 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Solifuges of the World (version 1.0)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Solifuges of the World (version 1.0) :
 Galeodes caspius caspius Birula, 1890
 Galeodes caspius fuscus Birula, 1890
 Galeodes caspius pallasi Birula, 1912
@@ -607,7 +625,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Birula, 1890 : Zur Kenntnis der russischen  Galeodiden. I-II. Zoologischer Anzeiger, vol. 13, p. 204–209 (texte intégral).
 Birula, 1912 : Sur la distribution géographique de Galeodes araneoides (Pallas) dans les parties méridionales et méridionales-orientales de la Russie d’Europe. Revue Russe d’Entomologie, vol. 12, no 2, p. 296–312.
